--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H2">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I2">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J2">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>28.590514452402</v>
+        <v>52.08475045406889</v>
       </c>
       <c r="R2">
-        <v>257.314630071618</v>
+        <v>468.76275408662</v>
       </c>
       <c r="S2">
-        <v>0.01432998470410899</v>
+        <v>0.0245895911088631</v>
       </c>
       <c r="T2">
-        <v>0.01568503190246838</v>
+        <v>0.02575182876691256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H3">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I3">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J3">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>18.48551944886267</v>
+        <v>23.92102734508134</v>
       </c>
       <c r="R3">
-        <v>166.369675039764</v>
+        <v>215.289246105732</v>
       </c>
       <c r="S3">
-        <v>0.009265213166790576</v>
+        <v>0.01129329172534285</v>
       </c>
       <c r="T3">
-        <v>0.01014133420970154</v>
+        <v>0.01182707404276417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H4">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I4">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J4">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>1.087428057282778</v>
+        <v>1.936040899529222</v>
       </c>
       <c r="R4">
-        <v>9.786852515544998</v>
+        <v>17.424368095763</v>
       </c>
       <c r="S4">
-        <v>0.0005450348734935752</v>
+        <v>0.0009140190492309452</v>
       </c>
       <c r="T4">
-        <v>0.0005965735173641344</v>
+        <v>0.0009572205548797265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H5">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I5">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J5">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>4.537444499361667</v>
+        <v>3.232919491345167</v>
       </c>
       <c r="R5">
-        <v>27.22466699617</v>
+        <v>19.397516948071</v>
       </c>
       <c r="S5">
-        <v>0.00227423365815418</v>
+        <v>0.001526284904641241</v>
       </c>
       <c r="T5">
-        <v>0.001659523868697837</v>
+        <v>0.001065616947155544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.996239666666667</v>
+        <v>7.759382333333334</v>
       </c>
       <c r="H6">
-        <v>17.988719</v>
+        <v>23.278147</v>
       </c>
       <c r="I6">
-        <v>0.02748578043016502</v>
+        <v>0.03884312320086166</v>
       </c>
       <c r="J6">
-        <v>0.02925508126773497</v>
+        <v>0.04014625174390325</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>2.137435581552444</v>
+        <v>1.101309826256222</v>
       </c>
       <c r="R6">
-        <v>19.236920233972</v>
+        <v>9.911788436306001</v>
       </c>
       <c r="S6">
-        <v>0.001071314027617699</v>
+        <v>0.0005199364127835235</v>
       </c>
       <c r="T6">
-        <v>0.001172617769503078</v>
+        <v>0.0005445114321912415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J7">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>822.17239016115</v>
+        <v>1157.452926833389</v>
       </c>
       <c r="R7">
-        <v>7399.55151145035</v>
+        <v>10417.0763415005</v>
       </c>
       <c r="S7">
-        <v>0.4120848470482902</v>
+        <v>0.5464419806271041</v>
       </c>
       <c r="T7">
-        <v>0.4510517007476544</v>
+        <v>0.5722697971618427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J8">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>531.5848280360334</v>
@@ -948,10 +948,10 @@
         <v>4784.2634523243</v>
       </c>
       <c r="S8">
-        <v>0.2664381037065523</v>
+        <v>0.2509650799346437</v>
       </c>
       <c r="T8">
-        <v>0.2916325622784604</v>
+        <v>0.2628270529729144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J9">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>31.27097717926389</v>
+        <v>43.02365252964722</v>
       </c>
       <c r="R9">
-        <v>281.438794613375</v>
+        <v>387.2128727668249</v>
       </c>
       <c r="S9">
-        <v>0.01567347189248443</v>
+        <v>0.02031178059779266</v>
       </c>
       <c r="T9">
-        <v>0.01715555959983459</v>
+        <v>0.02127182569200669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J10">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>130.4824925579583</v>
+        <v>71.84352607725417</v>
       </c>
       <c r="R10">
-        <v>782.8949553477499</v>
+        <v>431.061156463525</v>
       </c>
       <c r="S10">
-        <v>0.06539973688205067</v>
+        <v>0.0339178533958132</v>
       </c>
       <c r="T10">
-        <v>0.0477226356989232</v>
+        <v>0.02368066360337319</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.7904037483947683</v>
+        <v>0.8631909770948131</v>
       </c>
       <c r="J11">
-        <v>0.8412832210590593</v>
+        <v>0.8921497401307179</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>61.46585867932222</v>
+        <v>24.47384830757222</v>
       </c>
       <c r="R11">
-        <v>553.1927281139</v>
+        <v>220.26463476815</v>
       </c>
       <c r="S11">
-        <v>0.03080758886539071</v>
+        <v>0.01155428253945929</v>
       </c>
       <c r="T11">
-        <v>0.03372076273418664</v>
+        <v>0.01210040070058082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H12">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I12">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J12">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>0.413962595322</v>
+        <v>0.3517723387577777</v>
       </c>
       <c r="R12">
-        <v>3.725663357898</v>
+        <v>3.165951048819999</v>
       </c>
       <c r="S12">
-        <v>0.0002074841174653695</v>
+        <v>0.0001660742904219193</v>
       </c>
       <c r="T12">
-        <v>0.0002271038712809407</v>
+        <v>0.0001739238635810527</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H13">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I13">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J13">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>0.2676521830226667</v>
+        <v>0.1615589142946667</v>
       </c>
       <c r="R13">
-        <v>2.408869647204</v>
+        <v>1.454030228652</v>
       </c>
       <c r="S13">
-        <v>0.0001341511953246424</v>
+        <v>7.627314344149583E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001468365683473433</v>
+        <v>7.987822655219314E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H14">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I14">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J14">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.01574489124944444</v>
+        <v>0.01307572042144444</v>
       </c>
       <c r="R14">
-        <v>0.141704021245</v>
+        <v>0.117681483793</v>
       </c>
       <c r="S14">
-        <v>7.891570162125671E-06</v>
+        <v>6.173143114137972E-06</v>
       </c>
       <c r="T14">
-        <v>8.63779915396672E-06</v>
+        <v>6.464919393134082E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H15">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I15">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J15">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.06569774406166667</v>
+        <v>0.02183463759683333</v>
       </c>
       <c r="R15">
-        <v>0.39418646437</v>
+        <v>0.131007825581</v>
       </c>
       <c r="S15">
-        <v>3.292867181755297E-05</v>
+        <v>1.030829188650548E-05</v>
       </c>
       <c r="T15">
-        <v>2.402827723959499E-05</v>
+        <v>7.197011840373424E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08681966666666667</v>
+        <v>0.05240566666666666</v>
       </c>
       <c r="H16">
-        <v>0.260459</v>
+        <v>0.157217</v>
       </c>
       <c r="I16">
-        <v>0.0003979671306811982</v>
+        <v>0.0002623404388789996</v>
       </c>
       <c r="J16">
-        <v>0.0004235848707133055</v>
+        <v>0.0002711415672571033</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.03094796989911111</v>
+        <v>0.007438076018444445</v>
       </c>
       <c r="R16">
-        <v>0.278531729092</v>
+        <v>0.06694268416599999</v>
       </c>
       <c r="S16">
-        <v>1.551157591150756E-05</v>
+        <v>3.511570014940932E-06</v>
       </c>
       <c r="T16">
-        <v>1.69783546914598E-05</v>
+        <v>3.677545890349881E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H17">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I17">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J17">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>188.727647384961</v>
+        <v>130.57497579518</v>
       </c>
       <c r="R17">
-        <v>1132.365884309766</v>
+        <v>783.4498547710798</v>
       </c>
       <c r="S17">
-        <v>0.09459306179227402</v>
+        <v>0.06164539977367491</v>
       </c>
       <c r="T17">
-        <v>0.06902520472979733</v>
+        <v>0.04303939750255689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H18">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I18">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J18">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>122.023988133578</v>
+        <v>59.969329589748</v>
       </c>
       <c r="R18">
-        <v>732.143928801468</v>
+        <v>359.815977538488</v>
       </c>
       <c r="S18">
-        <v>0.06116021054464246</v>
+        <v>0.02831195850664482</v>
       </c>
       <c r="T18">
-        <v>0.04462902430869679</v>
+        <v>0.01976675697971133</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H19">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I19">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J19">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>7.178175799985833</v>
+        <v>4.853599016806999</v>
       </c>
       <c r="R19">
-        <v>43.06905479991499</v>
+        <v>29.121594100842</v>
       </c>
       <c r="S19">
-        <v>0.003597806873620644</v>
+        <v>0.002291419545821028</v>
       </c>
       <c r="T19">
-        <v>0.002625344304588524</v>
+        <v>0.001599816321084755</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H20">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I20">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J20">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>29.9519348254475</v>
+        <v>8.104836456928499</v>
       </c>
       <c r="R20">
-        <v>119.80773930179</v>
+        <v>32.419345827714</v>
       </c>
       <c r="S20">
-        <v>0.01501234854034158</v>
+        <v>0.003826352487871228</v>
       </c>
       <c r="T20">
-        <v>0.007303075664948234</v>
+        <v>0.001780980752443364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.5815265</v>
+        <v>19.452549</v>
       </c>
       <c r="H21">
-        <v>79.16305299999999</v>
+        <v>38.905098</v>
       </c>
       <c r="I21">
-        <v>0.1814352339046085</v>
+        <v>0.09737859599105524</v>
       </c>
       <c r="J21">
-        <v>0.1287429943686935</v>
+        <v>0.06709700125311635</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>14.10933648692733</v>
+        <v>2.760952153034</v>
       </c>
       <c r="R21">
-        <v>84.65601892156398</v>
+        <v>16.565712918204</v>
       </c>
       <c r="S21">
-        <v>0.00707180615372974</v>
+        <v>0.001303465677043243</v>
       </c>
       <c r="T21">
-        <v>0.005160345360662641</v>
+        <v>0.0009100496973200057</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H22">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I22">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J22">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>0.2884144388280001</v>
+        <v>0.4357433094622222</v>
       </c>
       <c r="R22">
-        <v>2.595729949452001</v>
+        <v>3.921689785159999</v>
       </c>
       <c r="S22">
-        <v>0.0001445575421082425</v>
+        <v>0.0002057175990033336</v>
       </c>
       <c r="T22">
-        <v>0.0001582269420748263</v>
+        <v>0.0002154409302871553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H23">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I23">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J23">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>0.1864776070106667</v>
+        <v>0.2001243651973334</v>
       </c>
       <c r="R23">
-        <v>1.678298463096</v>
+        <v>1.801119286776</v>
       </c>
       <c r="S23">
-        <v>9.346530859283637E-05</v>
+        <v>9.448017448912998E-05</v>
       </c>
       <c r="T23">
-        <v>0.000102303413250143</v>
+        <v>9.89458207963096E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H24">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I24">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J24">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.01096972051444444</v>
+        <v>0.01619700318155556</v>
       </c>
       <c r="R24">
-        <v>0.09872748463</v>
+        <v>0.145773028634</v>
       </c>
       <c r="S24">
-        <v>5.498184631900978E-06</v>
+        <v>7.646723502585048E-06</v>
       </c>
       <c r="T24">
-        <v>6.018094445857986E-06</v>
+        <v>8.008149195922134E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H25">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I25">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J25">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.04577268139666667</v>
+        <v>0.02704674642966667</v>
       </c>
       <c r="R25">
-        <v>0.27463608838</v>
+        <v>0.162280478578</v>
       </c>
       <c r="S25">
-        <v>2.294193850104649E-05</v>
+        <v>1.276896653497647E-05</v>
       </c>
       <c r="T25">
-        <v>1.674088957402257E-05</v>
+        <v>8.914998173641291E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06048866666666667</v>
+        <v>0.06491533333333334</v>
       </c>
       <c r="H26">
-        <v>0.181466</v>
+        <v>0.194746</v>
       </c>
       <c r="I26">
-        <v>0.000277270139777064</v>
+        <v>0.0003249632743909987</v>
       </c>
       <c r="J26">
-        <v>0.0002951184337990267</v>
+        <v>0.0003358653050055137</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.02156195142311111</v>
+        <v>0.009213606367555556</v>
       </c>
       <c r="R26">
-        <v>0.194057562808</v>
+        <v>0.08292245730800001</v>
       </c>
       <c r="S26">
-        <v>1.08071659430376E-05</v>
+        <v>4.349810860973602E-06</v>
       </c>
       <c r="T26">
-        <v>1.182909445417684E-05</v>
+        <v>4.555406552485278E-06</v>
       </c>
     </row>
   </sheetData>
